--- a/SQL_.xlsx
+++ b/SQL_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>https://zametkinapolyah.ru/zametki-o-poleznyx-programmax/chast-1-5-menedzhery-baz-dannyx-dlya-sqlite-samye-populyarnye-graficheskie-obolochki-dlya-raboty-s-bazami-dannyx-sqlite.html</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/tagged/sqlite</t>
+  </si>
+  <si>
+    <t>https://www.sqlitetutorial.net/sqlite-sample-database/</t>
+  </si>
+  <si>
+    <t>SQLite Sample Database</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,37 +569,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
